--- a/rmse_per_step_N100.xlsx
+++ b/rmse_per_step_N100.xlsx
@@ -469,501 +469,1001 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>0.4535203506751185</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3020756239112866</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3056451943849225</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5906923937598201</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.380138037772302</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>0.9097570976179298</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9244538632099009</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9166084150190259</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.90107947335979</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.821886331334877</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>3.49003373779724</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.652873096547576</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.04018762523201</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.972929112250686</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.114113804726192</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>3.816821590760043</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.720698167542238</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.464228444649553</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.522026385846795</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.370972886400878</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>1.199941886235963</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.421687507937904</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.814626404957962</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4056293098936909</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.465668737446015</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0.425921230356823</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.833160670165374</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.40628487287296</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6888814055861039</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3042466646973578</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>0.495173503886413</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.203943053448746</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.163642466937322</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5238173630335253</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4934571632475521</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>1.072029922781226</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.392627471530515</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.374554113624446</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.053906082625915</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.069775170464057</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>6.723568793977068</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.379726202258093</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.182366951178018</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.227896293665879</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.119977087147812</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>1.085310092505946</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.508130353965116</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.604701396560053</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7012631703505565</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.664945969341365</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>1.881773857655137</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.141756631209841</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.610244968903563</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.787320589336167</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.570706722852267</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>2.991830678012255</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.872550797005065</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.797220740676861</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.881718321464241</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.604544375201781</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>1.488594334135885</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.272723239785218</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.644261158461768</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.365086821304049</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.92967429017216</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>4.418218141370899</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.758979301636325</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.139178589490578</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.499670553000559</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.815240742737772</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>3.32858074439417</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.623910729334898</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5.483770519375405</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6633265472461231</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.227171761065189</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>3.167559919055939</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.796923543200565</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6.493047172626782</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.56226229167334</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.794313103124907</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>6.762719521460242</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7.446895092370802</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8.707272600107984</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6.594534946724379</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9.270032667181695</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>2.24567783344822</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.440293683292412</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5.529991232418888</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5819150218618335</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4.998532907086517</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>2.362546231686846</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.198515660171577</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7.237270044918705</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.987799437183792</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4.107562040735169</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>0.7231546523943466</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.824858727853615</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8.695755149402336</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.179226037199067</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.699050180792087</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>2.222396590930952</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.156076854289611</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8.152014434913417</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.593167321073129</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.191721443597737</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>5.060103453869686</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.281505219667385</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7.940210247586567</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.26175046335033</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.909886444506562</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>2.510612128129727</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.471274562380192</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8.476883247511905</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.875855920202337</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.226234160516535</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>2.747162688462782</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.937428469586139</v>
+      </c>
+      <c r="D25" t="n">
+        <v>11.12121831820572</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.144876871791151</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.926554832446689</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>4.297894537831777</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.169609077572868</v>
+      </c>
+      <c r="D26" t="n">
+        <v>9.032794579597441</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.852084502174376</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4.300791038811704</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>2.683006551960815</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.377460865513357</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4.619937517535406</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.340311913273378</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.537865223507426</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>3.68824282852695</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.256610251642993</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.800487409445081</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.613907573896213</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.845409638750424</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>3.266487394005218</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.846349661566443</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8.246761393080225</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5568377876034158</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.027520337334262</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>2.606835497353015</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.859331091436136</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9.531179761701502</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.013952327041125</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.973731649914628</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>7.866803899876276</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.832980588889434</v>
+      </c>
+      <c r="D31" t="n">
+        <v>11.63291468661957</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7.661765639747522</v>
+      </c>
+      <c r="F31" t="n">
+        <v>9.295684146992556</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>3.784750548840037</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.540874964550539</v>
+      </c>
+      <c r="D32" t="n">
+        <v>7.68375885766903</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.377924757687587</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4.878433090643001</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>32</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>3.278467240391927</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.942014184451343</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10.21896981335616</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.516237066669274</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4.689846194532971</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33</v>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>1.532667525038514</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.21628090423384</v>
+      </c>
+      <c r="D34" t="n">
+        <v>8.635328747296084</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.182304221812399</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4.102389788536663</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>34</v>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>1.176609298886831</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.300803130325223</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6.403510977060237</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.7777123246629284</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3.438665629315761</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>35</v>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>3.16802572436521</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4.676304098499425</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6.613181405194264</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.097024573968493</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4.219687597046241</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36</v>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>0.8424308087147622</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5.178684438624533</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6.516953512987757</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.241278413101661</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.530628706311255</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37</v>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>2.508167107592303</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6.646009825661258</v>
+      </c>
+      <c r="D38" t="n">
+        <v>8.549705136204027</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.021555892379072</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3.315584431258454</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>38</v>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>5.237173899084287</v>
+      </c>
+      <c r="C39" t="n">
+        <v>6.670769493422843</v>
+      </c>
+      <c r="D39" t="n">
+        <v>8.897570338911907</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5.230809959325822</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6.508899914045232</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>39</v>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>1.760163627453425</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.622122038689856</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4.794721125767085</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.18030781221579</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3.023951890387214</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>40</v>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>2.172677722070451</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.935017938600518</v>
+      </c>
+      <c r="D41" t="n">
+        <v>6.611780586875716</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.199659961381513</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3.378427538189364</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>41</v>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>2.969923684746103</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.14533467516269</v>
+      </c>
+      <c r="D42" t="n">
+        <v>7.774432107903587</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.5146205394838276</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3.095663186074268</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>42</v>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>2.149200224306838</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.652657995348627</v>
+      </c>
+      <c r="D43" t="n">
+        <v>7.251869745114</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9619393193247089</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.302457090636017</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>43</v>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>6.762057677289856</v>
+      </c>
+      <c r="C44" t="n">
+        <v>7.176125905026142</v>
+      </c>
+      <c r="D44" t="n">
+        <v>8.956952392443139</v>
+      </c>
+      <c r="E44" t="n">
+        <v>6.350776844599146</v>
+      </c>
+      <c r="F44" t="n">
+        <v>6.730011970161499</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>44</v>
       </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>1.985667816389377</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.138684473192542</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7.048919970485344</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.8683206982597185</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3.418144043449781</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>45</v>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>3.442261288041863</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2.61584968038488</v>
+      </c>
+      <c r="D46" t="n">
+        <v>8.938029928975002</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.028927052062247</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3.904414014144783</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>46</v>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>3.39761808695313</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.532173870662739</v>
+      </c>
+      <c r="D47" t="n">
+        <v>7.853765316164679</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.155237040529683</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4.376283573493606</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>47</v>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>2.255015175638741</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.364709442908993</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5.124308392369709</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.624359491427078</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3.03303493044563</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>48</v>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>1.621170287005602</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3.556424113898818</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5.031389977759792</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.754768361063166</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.154960357797139</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>49</v>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>2.098546357152096</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.249105420105503</v>
+      </c>
+      <c r="D50" t="n">
+        <v>6.238920947472038</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.6066508295744768</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.5638641391244242</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>2.232533576882229</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.427435882539704</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6.400306924082329</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.138369998414014</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.116574531007036</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rmse_per_step_N100.xlsx
+++ b/rmse_per_step_N100.xlsx
@@ -470,19 +470,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4535203506751185</v>
+        <v>0.3261034857619763</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3020756239112866</v>
+        <v>0.243030178375617</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3056451943849225</v>
+        <v>0.2397051667750451</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5906923937598201</v>
+        <v>0.2709087044205554</v>
       </c>
       <c r="F2" t="n">
-        <v>2.380138037772302</v>
+        <v>0.3162395372067596</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9097570976179298</v>
+        <v>0.3232729761283314</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9244538632099009</v>
+        <v>0.3197938865696847</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9166084150190259</v>
+        <v>0.3190361464299166</v>
       </c>
       <c r="E3" t="n">
-        <v>0.90107947335979</v>
+        <v>0.3169643890488516</v>
       </c>
       <c r="F3" t="n">
-        <v>1.821886331334877</v>
+        <v>0.3224798355392302</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +510,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.49003373779724</v>
+        <v>0.5658004378415536</v>
       </c>
       <c r="C4" t="n">
-        <v>6.652873096547576</v>
+        <v>0.5635061698764284</v>
       </c>
       <c r="D4" t="n">
-        <v>5.04018762523201</v>
+        <v>0.5548232918663109</v>
       </c>
       <c r="E4" t="n">
-        <v>1.972929112250686</v>
+        <v>0.5646865496711623</v>
       </c>
       <c r="F4" t="n">
-        <v>3.114113804726192</v>
+        <v>0.5567449365626952</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3.816821590760043</v>
+        <v>0.3358515787444402</v>
       </c>
       <c r="C5" t="n">
-        <v>4.720698167542238</v>
+        <v>0.3058208845870046</v>
       </c>
       <c r="D5" t="n">
-        <v>4.464228444649553</v>
+        <v>0.3072502434509106</v>
       </c>
       <c r="E5" t="n">
-        <v>3.522026385846795</v>
+        <v>0.3373465370428896</v>
       </c>
       <c r="F5" t="n">
-        <v>4.370972886400878</v>
+        <v>0.3195681374063638</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.199941886235963</v>
+        <v>0.1749926333983698</v>
       </c>
       <c r="C6" t="n">
-        <v>1.421687507937904</v>
+        <v>0.1751601255498974</v>
       </c>
       <c r="D6" t="n">
-        <v>1.814626404957962</v>
+        <v>0.1737744568751214</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4056293098936909</v>
+        <v>0.1807096908304174</v>
       </c>
       <c r="F6" t="n">
-        <v>2.465668737446015</v>
+        <v>0.1778659313179481</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.425921230356823</v>
+        <v>0.1861370261919635</v>
       </c>
       <c r="C7" t="n">
-        <v>1.833160670165374</v>
+        <v>0.18776839073392</v>
       </c>
       <c r="D7" t="n">
-        <v>1.40628487287296</v>
+        <v>0.1889289762200198</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6888814055861039</v>
+        <v>0.1943888231421522</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3042466646973578</v>
+        <v>0.1888755855320185</v>
       </c>
     </row>
     <row r="8">
@@ -590,19 +590,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.495173503886413</v>
+        <v>0.2939668116500341</v>
       </c>
       <c r="C8" t="n">
-        <v>2.203943053448746</v>
+        <v>0.2885816419974012</v>
       </c>
       <c r="D8" t="n">
-        <v>2.163642466937322</v>
+        <v>0.2883531684413886</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5238173630335253</v>
+        <v>0.2945729018876541</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4934571632475521</v>
+        <v>0.2898969659921938</v>
       </c>
     </row>
     <row r="9">
@@ -610,19 +610,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1.072029922781226</v>
+        <v>0.3566482727704394</v>
       </c>
       <c r="C9" t="n">
-        <v>1.392627471530515</v>
+        <v>0.3528246559434955</v>
       </c>
       <c r="D9" t="n">
-        <v>1.374554113624446</v>
+        <v>0.3504559597833056</v>
       </c>
       <c r="E9" t="n">
-        <v>1.053906082625915</v>
+        <v>0.3525724158899619</v>
       </c>
       <c r="F9" t="n">
-        <v>1.069775170464057</v>
+        <v>0.350666115874779</v>
       </c>
     </row>
     <row r="10">
@@ -630,19 +630,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>6.723568793977068</v>
+        <v>3.154235020246765</v>
       </c>
       <c r="C10" t="n">
-        <v>7.379726202258093</v>
+        <v>3.238948591953855</v>
       </c>
       <c r="D10" t="n">
-        <v>8.182366951178018</v>
+        <v>5.411637049224113</v>
       </c>
       <c r="E10" t="n">
-        <v>6.227896293665879</v>
+        <v>3.093883468439806</v>
       </c>
       <c r="F10" t="n">
-        <v>7.119977087147812</v>
+        <v>2.9904702750185</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.085310092505946</v>
+        <v>1.919568023105836</v>
       </c>
       <c r="C11" t="n">
-        <v>5.508130353965116</v>
+        <v>6.767045353952811</v>
       </c>
       <c r="D11" t="n">
-        <v>7.604701396560053</v>
+        <v>8.618061562700611</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7012631703505565</v>
+        <v>1.500521064435765</v>
       </c>
       <c r="F11" t="n">
-        <v>3.664945969341365</v>
+        <v>2.181754212755039</v>
       </c>
     </row>
     <row r="12">
@@ -670,19 +670,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1.881773857655137</v>
+        <v>3.229092732268141</v>
       </c>
       <c r="C12" t="n">
-        <v>4.141756631209841</v>
+        <v>7.083519229163552</v>
       </c>
       <c r="D12" t="n">
-        <v>9.610244968903563</v>
+        <v>9.188297999309597</v>
       </c>
       <c r="E12" t="n">
-        <v>1.787320589336167</v>
+        <v>2.25545278065088</v>
       </c>
       <c r="F12" t="n">
-        <v>3.570706722852267</v>
+        <v>2.951562172636172</v>
       </c>
     </row>
     <row r="13">
@@ -690,19 +690,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>2.991830678012255</v>
+        <v>3.193921748679097</v>
       </c>
       <c r="C13" t="n">
-        <v>2.872550797005065</v>
+        <v>4.815331940341147</v>
       </c>
       <c r="D13" t="n">
-        <v>6.797220740676861</v>
+        <v>7.89056155765693</v>
       </c>
       <c r="E13" t="n">
-        <v>1.881718321464241</v>
+        <v>2.327060973168464</v>
       </c>
       <c r="F13" t="n">
-        <v>3.604544375201781</v>
+        <v>3.018754156603732</v>
       </c>
     </row>
     <row r="14">
@@ -710,19 +710,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1.488594334135885</v>
+        <v>2.28833571022367</v>
       </c>
       <c r="C14" t="n">
-        <v>1.272723239785218</v>
+        <v>2.761949679744132</v>
       </c>
       <c r="D14" t="n">
-        <v>2.644261158461768</v>
+        <v>4.862260487882537</v>
       </c>
       <c r="E14" t="n">
-        <v>1.365086821304049</v>
+        <v>1.287377888715331</v>
       </c>
       <c r="F14" t="n">
-        <v>2.92967429017216</v>
+        <v>2.240549219579185</v>
       </c>
     </row>
     <row r="15">
@@ -730,19 +730,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>4.418218141370899</v>
+        <v>1.378715141482394</v>
       </c>
       <c r="C15" t="n">
-        <v>3.758979301636325</v>
+        <v>1.304786706184724</v>
       </c>
       <c r="D15" t="n">
-        <v>4.139178589490578</v>
+        <v>1.414198740831327</v>
       </c>
       <c r="E15" t="n">
-        <v>2.499670553000559</v>
+        <v>0.5078726298089584</v>
       </c>
       <c r="F15" t="n">
-        <v>3.815240742737772</v>
+        <v>1.772873007894199</v>
       </c>
     </row>
     <row r="16">
@@ -750,19 +750,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>3.32858074439417</v>
+        <v>1.044772904592173</v>
       </c>
       <c r="C16" t="n">
-        <v>3.623910729334898</v>
+        <v>1.093194989017229</v>
       </c>
       <c r="D16" t="n">
-        <v>5.483770519375405</v>
+        <v>1.328310757421718</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6633265472461231</v>
+        <v>0.3297490460935945</v>
       </c>
       <c r="F16" t="n">
-        <v>2.227171761065189</v>
+        <v>1.230988019121287</v>
       </c>
     </row>
     <row r="17">
@@ -770,19 +770,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>3.167559919055939</v>
+        <v>1.181671489014789</v>
       </c>
       <c r="C17" t="n">
-        <v>4.796923543200565</v>
+        <v>1.209074340366383</v>
       </c>
       <c r="D17" t="n">
-        <v>6.493047172626782</v>
+        <v>1.515865159352975</v>
       </c>
       <c r="E17" t="n">
-        <v>1.56226229167334</v>
+        <v>0.4970161277174547</v>
       </c>
       <c r="F17" t="n">
-        <v>2.794313103124907</v>
+        <v>1.42568859410532</v>
       </c>
     </row>
     <row r="18">
@@ -790,19 +790,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>6.762719521460242</v>
+        <v>3.187803590501155</v>
       </c>
       <c r="C18" t="n">
-        <v>7.446895092370802</v>
+        <v>3.261011522777659</v>
       </c>
       <c r="D18" t="n">
-        <v>8.707272600107984</v>
+        <v>3.82227105046149</v>
       </c>
       <c r="E18" t="n">
-        <v>6.594534946724379</v>
+        <v>2.461522997925464</v>
       </c>
       <c r="F18" t="n">
-        <v>9.270032667181695</v>
+        <v>3.230282506221333</v>
       </c>
     </row>
     <row r="19">
@@ -810,19 +810,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>2.24567783344822</v>
+        <v>1.964069917977305</v>
       </c>
       <c r="C19" t="n">
-        <v>2.440293683292412</v>
+        <v>7.849188020652375</v>
       </c>
       <c r="D19" t="n">
-        <v>5.529991232418888</v>
+        <v>3.543378532524112</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5819150218618335</v>
+        <v>1.07056388222961</v>
       </c>
       <c r="F19" t="n">
-        <v>4.998532907086517</v>
+        <v>2.214536865339679</v>
       </c>
     </row>
     <row r="20">
@@ -830,19 +830,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>2.362546231686846</v>
+        <v>2.115183240364693</v>
       </c>
       <c r="C20" t="n">
-        <v>5.198515660171577</v>
+        <v>2.992906541313922</v>
       </c>
       <c r="D20" t="n">
-        <v>7.237270044918705</v>
+        <v>3.394388705742865</v>
       </c>
       <c r="E20" t="n">
-        <v>1.987799437183792</v>
+        <v>0.8856862451610508</v>
       </c>
       <c r="F20" t="n">
-        <v>4.107562040735169</v>
+        <v>1.420909471223743</v>
       </c>
     </row>
     <row r="21">
@@ -850,19 +850,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7231546523943466</v>
+        <v>1.946908961603379</v>
       </c>
       <c r="C21" t="n">
-        <v>3.824858727853615</v>
+        <v>2.376770978476597</v>
       </c>
       <c r="D21" t="n">
-        <v>8.695755149402336</v>
+        <v>3.576182446863533</v>
       </c>
       <c r="E21" t="n">
-        <v>1.179226037199067</v>
+        <v>1.021263833926735</v>
       </c>
       <c r="F21" t="n">
-        <v>3.699050180792087</v>
+        <v>1.476015803893546</v>
       </c>
     </row>
     <row r="22">
@@ -870,19 +870,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>2.222396590930952</v>
+        <v>1.769157621931493</v>
       </c>
       <c r="C22" t="n">
-        <v>3.156076854289611</v>
+        <v>1.658431880526133</v>
       </c>
       <c r="D22" t="n">
-        <v>8.152014434913417</v>
+        <v>2.466837078258214</v>
       </c>
       <c r="E22" t="n">
-        <v>1.593167321073129</v>
+        <v>0.8400057109155966</v>
       </c>
       <c r="F22" t="n">
-        <v>3.191721443597737</v>
+        <v>1.247468616138145</v>
       </c>
     </row>
     <row r="23">
@@ -890,19 +890,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>5.060103453869686</v>
+        <v>1.02704094163584</v>
       </c>
       <c r="C23" t="n">
-        <v>4.281505219667385</v>
+        <v>1.586888561394221</v>
       </c>
       <c r="D23" t="n">
-        <v>7.940210247586567</v>
+        <v>1.145207484926964</v>
       </c>
       <c r="E23" t="n">
-        <v>4.26175046335033</v>
+        <v>0.5792192485370049</v>
       </c>
       <c r="F23" t="n">
-        <v>4.909886444506562</v>
+        <v>0.9086233982328338</v>
       </c>
     </row>
     <row r="24">
@@ -910,19 +910,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>2.510612128129727</v>
+        <v>0.7722772273830389</v>
       </c>
       <c r="C24" t="n">
-        <v>2.471274562380192</v>
+        <v>0.9916506848751396</v>
       </c>
       <c r="D24" t="n">
-        <v>8.476883247511905</v>
+        <v>0.8062299114408407</v>
       </c>
       <c r="E24" t="n">
-        <v>1.875855920202337</v>
+        <v>0.3291885102552143</v>
       </c>
       <c r="F24" t="n">
-        <v>2.226234160516535</v>
+        <v>0.7421043581309374</v>
       </c>
     </row>
     <row r="25">
@@ -930,19 +930,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>2.747162688462782</v>
+        <v>1.19129960413473</v>
       </c>
       <c r="C25" t="n">
-        <v>2.937428469586139</v>
+        <v>1.490892453113054</v>
       </c>
       <c r="D25" t="n">
-        <v>11.12121831820572</v>
+        <v>1.396711670072865</v>
       </c>
       <c r="E25" t="n">
-        <v>2.144876871791151</v>
+        <v>0.7511028164755867</v>
       </c>
       <c r="F25" t="n">
-        <v>2.926554832446689</v>
+        <v>1.237735828165992</v>
       </c>
     </row>
     <row r="26">
@@ -950,19 +950,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>4.297894537831777</v>
+        <v>1.355341133107103</v>
       </c>
       <c r="C26" t="n">
-        <v>4.169609077572868</v>
+        <v>1.5469119885493</v>
       </c>
       <c r="D26" t="n">
-        <v>9.032794579597441</v>
+        <v>1.329054084148563</v>
       </c>
       <c r="E26" t="n">
-        <v>3.852084502174376</v>
+        <v>0.9502054106684943</v>
       </c>
       <c r="F26" t="n">
-        <v>4.300791038811704</v>
+        <v>1.333285991611034</v>
       </c>
     </row>
     <row r="27">
@@ -970,19 +970,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>2.683006551960815</v>
+        <v>1.06348395731769</v>
       </c>
       <c r="C27" t="n">
-        <v>1.377460865513357</v>
+        <v>0.8645086690985538</v>
       </c>
       <c r="D27" t="n">
-        <v>4.619937517535406</v>
+        <v>0.7318517274061689</v>
       </c>
       <c r="E27" t="n">
-        <v>1.340311913273378</v>
+        <v>0.1707042661150397</v>
       </c>
       <c r="F27" t="n">
-        <v>2.537865223507426</v>
+        <v>0.8350073455117364</v>
       </c>
     </row>
     <row r="28">
@@ -990,19 +990,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>3.68824282852695</v>
+        <v>0.4266599106173817</v>
       </c>
       <c r="C28" t="n">
-        <v>3.256610251642993</v>
+        <v>0.2698852360704688</v>
       </c>
       <c r="D28" t="n">
-        <v>4.800487409445081</v>
+        <v>0.2729527135593814</v>
       </c>
       <c r="E28" t="n">
-        <v>1.613907573896213</v>
+        <v>0.221809650285012</v>
       </c>
       <c r="F28" t="n">
-        <v>1.845409638750424</v>
+        <v>0.2679269670655622</v>
       </c>
     </row>
     <row r="29">
@@ -1010,19 +1010,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>3.266487394005218</v>
+        <v>0.3151984712023083</v>
       </c>
       <c r="C29" t="n">
-        <v>3.846349661566443</v>
+        <v>0.3062798415753341</v>
       </c>
       <c r="D29" t="n">
-        <v>8.246761393080225</v>
+        <v>0.3086545195162099</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5568377876034158</v>
+        <v>0.3170397857342497</v>
       </c>
       <c r="F29" t="n">
-        <v>2.027520337334262</v>
+        <v>0.3121119286065119</v>
       </c>
     </row>
     <row r="30">
@@ -1030,19 +1030,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>2.606835497353015</v>
+        <v>0.4218921298032113</v>
       </c>
       <c r="C30" t="n">
-        <v>3.859331091436136</v>
+        <v>0.4209002747262663</v>
       </c>
       <c r="D30" t="n">
-        <v>9.531179761701502</v>
+        <v>0.4199387128855186</v>
       </c>
       <c r="E30" t="n">
-        <v>1.013952327041125</v>
+        <v>0.4205470161098318</v>
       </c>
       <c r="F30" t="n">
-        <v>1.973731649914628</v>
+        <v>0.4207755065948413</v>
       </c>
     </row>
     <row r="31">
@@ -1050,19 +1050,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>7.866803899876276</v>
+        <v>7.314205144227242</v>
       </c>
       <c r="C31" t="n">
-        <v>8.832980588889434</v>
+        <v>7.807287954220884</v>
       </c>
       <c r="D31" t="n">
-        <v>11.63291468661957</v>
+        <v>8.512071123578025</v>
       </c>
       <c r="E31" t="n">
-        <v>7.661765639747522</v>
+        <v>7.138985902516953</v>
       </c>
       <c r="F31" t="n">
-        <v>9.295684146992556</v>
+        <v>7.364243871726367</v>
       </c>
     </row>
     <row r="32">
@@ -1070,19 +1070,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>3.784750548840037</v>
+        <v>1.551345961041217</v>
       </c>
       <c r="C32" t="n">
-        <v>1.540874964550539</v>
+        <v>4.848629804664427</v>
       </c>
       <c r="D32" t="n">
-        <v>7.68375885766903</v>
+        <v>7.972303307926865</v>
       </c>
       <c r="E32" t="n">
-        <v>1.377924757687587</v>
+        <v>0.9434156349153564</v>
       </c>
       <c r="F32" t="n">
-        <v>4.878433090643001</v>
+        <v>2.035213535232674</v>
       </c>
     </row>
     <row r="33">
@@ -1090,19 +1090,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>3.278467240391927</v>
+        <v>3.069210981681193</v>
       </c>
       <c r="C33" t="n">
-        <v>1.942014184451343</v>
+        <v>6.279129782715999</v>
       </c>
       <c r="D33" t="n">
-        <v>10.21896981335616</v>
+        <v>7.790773791724697</v>
       </c>
       <c r="E33" t="n">
-        <v>1.516237066669274</v>
+        <v>2.077314928221571</v>
       </c>
       <c r="F33" t="n">
-        <v>4.689846194532971</v>
+        <v>3.21572910487546</v>
       </c>
     </row>
     <row r="34">
@@ -1110,19 +1110,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>1.532667525038514</v>
+        <v>2.558923541324481</v>
       </c>
       <c r="C34" t="n">
-        <v>3.21628090423384</v>
+        <v>4.778386142643486</v>
       </c>
       <c r="D34" t="n">
-        <v>8.635328747296084</v>
+        <v>9.947977003395966</v>
       </c>
       <c r="E34" t="n">
-        <v>1.182304221812399</v>
+        <v>1.4304952060379</v>
       </c>
       <c r="F34" t="n">
-        <v>4.102389788536663</v>
+        <v>2.503079517765578</v>
       </c>
     </row>
     <row r="35">
@@ -1130,19 +1130,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>1.176609298886831</v>
+        <v>2.529115865394683</v>
       </c>
       <c r="C35" t="n">
-        <v>3.300803130325223</v>
+        <v>3.028003198226061</v>
       </c>
       <c r="D35" t="n">
-        <v>6.403510977060237</v>
+        <v>6.374864554986262</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7777123246629284</v>
+        <v>0.9359545323855706</v>
       </c>
       <c r="F35" t="n">
-        <v>3.438665629315761</v>
+        <v>1.983932759380312</v>
       </c>
     </row>
     <row r="36">
@@ -1150,19 +1150,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>3.16802572436521</v>
+        <v>1.090225829284548</v>
       </c>
       <c r="C36" t="n">
-        <v>4.676304098499425</v>
+        <v>1.49504904321178</v>
       </c>
       <c r="D36" t="n">
-        <v>6.613181405194264</v>
+        <v>2.05143696556631</v>
       </c>
       <c r="E36" t="n">
-        <v>3.097024573968493</v>
+        <v>0.6180877600758687</v>
       </c>
       <c r="F36" t="n">
-        <v>4.219687597046241</v>
+        <v>0.4957327058053378</v>
       </c>
     </row>
     <row r="37">
@@ -1170,19 +1170,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8424308087147622</v>
+        <v>0.8191447270400878</v>
       </c>
       <c r="C37" t="n">
-        <v>5.178684438624533</v>
+        <v>1.229876137841317</v>
       </c>
       <c r="D37" t="n">
-        <v>6.516953512987757</v>
+        <v>2.056967280439834</v>
       </c>
       <c r="E37" t="n">
-        <v>1.241278413101661</v>
+        <v>0.7405593640534561</v>
       </c>
       <c r="F37" t="n">
-        <v>2.530628706311255</v>
+        <v>0.3253025653670724</v>
       </c>
     </row>
     <row r="38">
@@ -1190,19 +1190,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>2.508167107592303</v>
+        <v>0.92428824023914</v>
       </c>
       <c r="C38" t="n">
-        <v>6.646009825661258</v>
+        <v>1.6500874192732</v>
       </c>
       <c r="D38" t="n">
-        <v>8.549705136204027</v>
+        <v>2.055036829036514</v>
       </c>
       <c r="E38" t="n">
-        <v>2.021555892379072</v>
+        <v>1.024441899799652</v>
       </c>
       <c r="F38" t="n">
-        <v>3.315584431258454</v>
+        <v>0.5231740321687353</v>
       </c>
     </row>
     <row r="39">
@@ -1210,19 +1210,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>5.237173899084287</v>
+        <v>1.780182307651393</v>
       </c>
       <c r="C39" t="n">
-        <v>6.670769493422843</v>
+        <v>2.053844181131203</v>
       </c>
       <c r="D39" t="n">
-        <v>8.897570338911907</v>
+        <v>3.23826710021921</v>
       </c>
       <c r="E39" t="n">
-        <v>5.230809959325822</v>
+        <v>1.634656297900487</v>
       </c>
       <c r="F39" t="n">
-        <v>6.508899914045232</v>
+        <v>1.471983362015202</v>
       </c>
     </row>
     <row r="40">
@@ -1230,19 +1230,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>1.760163627453425</v>
+        <v>1.209632877285357</v>
       </c>
       <c r="C40" t="n">
-        <v>2.622122038689856</v>
+        <v>1.901340223136314</v>
       </c>
       <c r="D40" t="n">
-        <v>4.794721125767085</v>
+        <v>2.601620790774532</v>
       </c>
       <c r="E40" t="n">
-        <v>1.18030781221579</v>
+        <v>1.074439994771718</v>
       </c>
       <c r="F40" t="n">
-        <v>3.023951890387214</v>
+        <v>1.381143368108032</v>
       </c>
     </row>
     <row r="41">
@@ -1250,19 +1250,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>2.172677722070451</v>
+        <v>1.710426716116909</v>
       </c>
       <c r="C41" t="n">
-        <v>3.935017938600518</v>
+        <v>2.230671067125217</v>
       </c>
       <c r="D41" t="n">
-        <v>6.611780586875716</v>
+        <v>2.509151605480356</v>
       </c>
       <c r="E41" t="n">
-        <v>2.199659961381513</v>
+        <v>0.6542362018282093</v>
       </c>
       <c r="F41" t="n">
-        <v>3.378427538189364</v>
+        <v>1.190381315515923</v>
       </c>
     </row>
     <row r="42">
@@ -1270,19 +1270,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>2.969923684746103</v>
+        <v>1.460094962590408</v>
       </c>
       <c r="C42" t="n">
-        <v>4.14533467516269</v>
+        <v>2.490914313099457</v>
       </c>
       <c r="D42" t="n">
-        <v>7.774432107903587</v>
+        <v>2.867964759727224</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5146205394838276</v>
+        <v>0.7028698910913062</v>
       </c>
       <c r="F42" t="n">
-        <v>3.095663186074268</v>
+        <v>1.196302356177392</v>
       </c>
     </row>
     <row r="43">
@@ -1290,19 +1290,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>2.149200224306838</v>
+        <v>1.285821559694853</v>
       </c>
       <c r="C43" t="n">
-        <v>4.652657995348627</v>
+        <v>1.894565078298469</v>
       </c>
       <c r="D43" t="n">
-        <v>7.251869745114</v>
+        <v>2.151992793183939</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9619393193247089</v>
+        <v>0.7469723045746671</v>
       </c>
       <c r="F43" t="n">
-        <v>2.302457090636017</v>
+        <v>1.013491814352964</v>
       </c>
     </row>
     <row r="44">
@@ -1310,19 +1310,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>6.762057677289856</v>
+        <v>1.439020348163232</v>
       </c>
       <c r="C44" t="n">
-        <v>7.176125905026142</v>
+        <v>1.562523055280578</v>
       </c>
       <c r="D44" t="n">
-        <v>8.956952392443139</v>
+        <v>2.760221194604273</v>
       </c>
       <c r="E44" t="n">
-        <v>6.350776844599146</v>
+        <v>1.186356296300017</v>
       </c>
       <c r="F44" t="n">
-        <v>6.730011970161499</v>
+        <v>1.229145725741921</v>
       </c>
     </row>
     <row r="45">
@@ -1330,19 +1330,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>1.985667816389377</v>
+        <v>2.110649172935283</v>
       </c>
       <c r="C45" t="n">
-        <v>1.138684473192542</v>
+        <v>3.403436765680962</v>
       </c>
       <c r="D45" t="n">
-        <v>7.048919970485344</v>
+        <v>3.136308775496404</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8683206982597185</v>
+        <v>1.386642713935347</v>
       </c>
       <c r="F45" t="n">
-        <v>3.418144043449781</v>
+        <v>2.041562854947156</v>
       </c>
     </row>
     <row r="46">
@@ -1350,19 +1350,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>3.442261288041863</v>
+        <v>2.402475354639948</v>
       </c>
       <c r="C46" t="n">
-        <v>2.61584968038488</v>
+        <v>3.520670050827245</v>
       </c>
       <c r="D46" t="n">
-        <v>8.938029928975002</v>
+        <v>4.519369046353051</v>
       </c>
       <c r="E46" t="n">
-        <v>2.028927052062247</v>
+        <v>1.972456525540246</v>
       </c>
       <c r="F46" t="n">
-        <v>3.904414014144783</v>
+        <v>2.819138279626154</v>
       </c>
     </row>
     <row r="47">
@@ -1370,19 +1370,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>3.39761808695313</v>
+        <v>2.560396598896622</v>
       </c>
       <c r="C47" t="n">
-        <v>4.532173870662739</v>
+        <v>3.243578282142921</v>
       </c>
       <c r="D47" t="n">
-        <v>7.853765316164679</v>
+        <v>4.240279013526639</v>
       </c>
       <c r="E47" t="n">
-        <v>3.155237040529683</v>
+        <v>2.210499931096527</v>
       </c>
       <c r="F47" t="n">
-        <v>4.376283573493606</v>
+        <v>2.587101510735173</v>
       </c>
     </row>
     <row r="48">
@@ -1390,19 +1390,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>2.255015175638741</v>
+        <v>1.971656597495257</v>
       </c>
       <c r="C48" t="n">
-        <v>3.364709442908993</v>
+        <v>1.797744619686098</v>
       </c>
       <c r="D48" t="n">
-        <v>5.124308392369709</v>
+        <v>2.380506723355575</v>
       </c>
       <c r="E48" t="n">
-        <v>0.624359491427078</v>
+        <v>1.424947612123111</v>
       </c>
       <c r="F48" t="n">
-        <v>3.03303493044563</v>
+        <v>2.03525402449212</v>
       </c>
     </row>
     <row r="49">
@@ -1410,19 +1410,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>1.621170287005602</v>
+        <v>0.4405568841431946</v>
       </c>
       <c r="C49" t="n">
-        <v>3.556424113898818</v>
+        <v>0.565351897615867</v>
       </c>
       <c r="D49" t="n">
-        <v>5.031389977759792</v>
+        <v>0.5890061081938119</v>
       </c>
       <c r="E49" t="n">
-        <v>1.754768361063166</v>
+        <v>0.3688107323145029</v>
       </c>
       <c r="F49" t="n">
-        <v>2.154960357797139</v>
+        <v>0.5112360748435018</v>
       </c>
     </row>
     <row r="50">
@@ -1430,19 +1430,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>2.098546357152096</v>
+        <v>0.3385284842835602</v>
       </c>
       <c r="C50" t="n">
-        <v>1.249105420105503</v>
+        <v>0.9485798483618457</v>
       </c>
       <c r="D50" t="n">
-        <v>6.238920947472038</v>
+        <v>0.948640530795993</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6066508295744768</v>
+        <v>0.3264349138182539</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5638641391244242</v>
+        <v>0.3500668940526634</v>
       </c>
     </row>
     <row r="51">
@@ -1450,19 +1450,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>2.232533576882229</v>
+        <v>0.5017422279607024</v>
       </c>
       <c r="C51" t="n">
-        <v>1.427435882539704</v>
+        <v>0.8406342554511057</v>
       </c>
       <c r="D51" t="n">
-        <v>6.400306924082329</v>
+        <v>0.8372143548030799</v>
       </c>
       <c r="E51" t="n">
-        <v>1.138369998414014</v>
+        <v>0.4996126314225639</v>
       </c>
       <c r="F51" t="n">
-        <v>1.116574531007036</v>
+        <v>0.5097640845270763</v>
       </c>
     </row>
   </sheetData>
